--- a/09c.xlsx
+++ b/09c.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAB8B1-A534-4EB7-B81C-1FEC1316F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0827E491-7C92-4660-A84F-EEFC62DA3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="2430" windowWidth="28230" windowHeight="15098" xr2:uid="{FEB6E786-BD32-4C37-8F6E-829EDA59CA52}"/>
+    <workbookView xWindow="4500" yWindow="3000" windowWidth="28800" windowHeight="16200" xr2:uid="{FEB6E786-BD32-4C37-8F6E-829EDA59CA52}"/>
   </bookViews>
   <sheets>
-    <sheet name="ふだん行う球技" sheetId="1" r:id="rId1"/>
-    <sheet name="ふだん行う球技 (グラフ)" sheetId="2" r:id="rId2"/>
-    <sheet name="ふだん行う球技 (頻度)" sheetId="3" r:id="rId3"/>
-    <sheet name="ふだん行う球技 (頻度別のグラフ)" sheetId="4" r:id="rId4"/>
-    <sheet name="ふだん行う球技 (頻度別ドーナツグラフ)" sheetId="5" r:id="rId5"/>
+    <sheet name="普段行う球技" sheetId="1" r:id="rId1"/>
+    <sheet name="普段行う球技 (グラフ)" sheetId="2" r:id="rId2"/>
+    <sheet name="普段行う球技 (頻度)" sheetId="3" r:id="rId3"/>
+    <sheet name="普段行う球技 (頻度別のグラフ)" sheetId="4" r:id="rId4"/>
+    <sheet name="普段行う球技 (頻度別ドーナツグラフ)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +565,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ふだん行う球技の割合</a:t>
+              <a:t>普段行う球技の割合</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -611,7 +611,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$B$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -632,7 +632,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -650,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$B$4:$B$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -677,7 +677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$C$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -698,7 +698,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -716,7 +716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$C$4:$C$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -743,7 +743,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$D$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -764,7 +764,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -782,7 +782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$D$4:$D$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -809,7 +809,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$E$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,7 +830,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -848,7 +848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$E$4:$E$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -875,7 +875,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$F$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -896,7 +896,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -914,7 +914,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$F$4:$F$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$F$4:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -941,7 +941,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$G$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -962,7 +962,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -980,7 +980,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$G$4:$G$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$G$4:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1007,7 +1007,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$H$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1087,7 +1087,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1105,7 +1105,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$H$4:$H$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$H$4:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1132,7 +1132,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$I$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1155,7 +1155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1173,7 +1173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$I$4:$I$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$I$4:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1200,7 +1200,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$J$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1223,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1241,7 +1241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$J$4:$J$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$J$4:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1268,7 +1268,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$K$3</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1291,7 +1291,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$A$4:$A$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1309,7 +1309,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (グラフ)'!$K$4:$K$6</c:f>
+              <c:f>'普段行う球技 (グラフ)'!$K$4:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1637,7 +1637,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$B$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1658,7 +1658,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1672,7 +1672,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$B$4:$B$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1696,7 +1696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$C$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1717,7 +1717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1731,7 +1731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$C$4:$C$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1755,7 +1755,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$D$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1776,7 +1776,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1790,7 +1790,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$D$4:$D$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1814,7 +1814,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$E$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1835,7 +1835,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1849,7 +1849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$E$4:$E$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$E$4:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1873,7 +1873,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$F$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,7 +1894,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1908,7 +1908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$F$4:$F$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$F$4:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1932,7 +1932,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$G$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1953,7 +1953,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1967,7 +1967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$G$4:$G$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$G$4:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1991,7 +1991,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$H$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,7 +2014,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2028,7 +2028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$H$4:$H$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$H$4:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2052,7 +2052,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$I$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2075,7 +2075,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2089,7 +2089,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$I$4:$I$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$I$4:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2113,7 +2113,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$J$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2136,7 +2136,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2150,7 +2150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$J$4:$J$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$J$4:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2174,7 +2174,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$K$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2197,7 +2197,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2211,7 +2211,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$K$4:$K$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$K$4:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2235,7 +2235,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$L$3</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2258,7 +2258,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2272,7 +2272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別のグラフ)'!$L$4:$L$5</c:f>
+              <c:f>'普段行う球技 (頻度別のグラフ)'!$L$4:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2603,7 +2603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別ドーナツグラフ)'!$A$4</c:f>
+              <c:f>'普段行う球技 (頻度別ドーナツグラフ)'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2844,7 +2844,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別ドーナツグラフ)'!$B$3:$L$3</c:f>
+              <c:f>'普段行う球技 (頻度別ドーナツグラフ)'!$B$3:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2885,7 +2885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別ドーナツグラフ)'!$B$4:$L$4</c:f>
+              <c:f>'普段行う球技 (頻度別ドーナツグラフ)'!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2936,7 +2936,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別ドーナツグラフ)'!$A$5</c:f>
+              <c:f>'普段行う球技 (頻度別ドーナツグラフ)'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3463,7 +3463,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ふだん行う球技 (頻度別ドーナツグラフ)'!$B$3:$L$3</c:f>
+              <c:f>'普段行う球技 (頻度別ドーナツグラフ)'!$B$3:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3504,7 +3504,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ふだん行う球技 (頻度別ドーナツグラフ)'!$B$5:$L$5</c:f>
+              <c:f>'普段行う球技 (頻度別ドーナツグラフ)'!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
